--- a/biology/Médecine/Prélèvement_urétral/Prélèvement_urétral.xlsx
+++ b/biology/Médecine/Prélèvement_urétral/Prélèvement_urétral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9l%C3%A8vement_ur%C3%A9tral</t>
+          <t>Prélèvement_urétral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prélèvement urétral est un prélèvement médical utilisé généralement pour détecter la présence de maladies sexuellement transmissibles (MST) chez l'homme et plus particulièrement le gonocoque lors d'une mise en culture classique.
 Ce test peut aussi permettre de détecter Chlamydia trachomatis, qui nécessite une technique de détection par biologie moléculaire.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pr%C3%A9l%C3%A8vement_ur%C3%A9tral</t>
+          <t>Prélèvement_urétral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce prélèvement doit être réalisé par du personnel compétent et autorisé (médecin, infirmier, biologiste médical) dans un établissement de santé, ou plus généralement dans un laboratoire d'analyses médicales.
 Il consiste à introduire un écouvillon par le méat urétral sur les deux premiers centimètres de l'urètre.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pr%C3%A9l%C3%A8vement_ur%C3%A9tral</t>
+          <t>Prélèvement_urétral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Autres possibilités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez la femme, on lui préférera un prélèvement vaginal et/ou de l'endocol.
 Les urines de premier jet peuvent être également utilisées dans le cas de la recherche de chlamydiae chez l'homme ou la femme.
